--- a/Code/Results/Cases/Case_0_131/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_131/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1640620160503516</v>
+        <v>0.3526108804440327</v>
       </c>
       <c r="D2">
-        <v>0.04517471086010616</v>
+        <v>0.144026428343949</v>
       </c>
       <c r="E2">
-        <v>0.03699690960504487</v>
+        <v>0.1420455687202589</v>
       </c>
       <c r="F2">
-        <v>1.123679010579707</v>
+        <v>1.676978675952185</v>
       </c>
       <c r="G2">
-        <v>0.9686070895637329</v>
+        <v>1.080943217832854</v>
       </c>
       <c r="H2">
-        <v>0.5790360541089115</v>
+        <v>1.042518565243768</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04073326320961002</v>
+        <v>0.1734338221595539</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.04607101056171103</v>
+        <v>0.13112348263809</v>
       </c>
       <c r="M2">
-        <v>2.693504444475479</v>
+        <v>1.313372010599664</v>
       </c>
       <c r="N2">
-        <v>4.061131206972306</v>
+        <v>1.834185285127148</v>
       </c>
       <c r="O2">
-        <v>3.215878535170901</v>
+        <v>4.312824721049111</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1556743632563382</v>
+        <v>0.3535761488437004</v>
       </c>
       <c r="D3">
-        <v>0.04558724273900694</v>
+        <v>0.1450179076528251</v>
       </c>
       <c r="E3">
-        <v>0.03888509113763394</v>
+        <v>0.143695570425499</v>
       </c>
       <c r="F3">
-        <v>1.027874622046724</v>
+        <v>1.666795739030661</v>
       </c>
       <c r="G3">
-        <v>0.8681566587234499</v>
+        <v>1.064826376541674</v>
       </c>
       <c r="H3">
-        <v>0.5384328157126106</v>
+        <v>1.040150824912715</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04396111296069627</v>
+        <v>0.1759001100428419</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.04701447014879889</v>
+        <v>0.1319447406444088</v>
       </c>
       <c r="M3">
-        <v>2.354301306575209</v>
+        <v>1.204970989054431</v>
       </c>
       <c r="N3">
-        <v>3.621820026515138</v>
+        <v>1.689828024268877</v>
       </c>
       <c r="O3">
-        <v>2.917445870406794</v>
+        <v>4.27328729660843</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1508623788836019</v>
+        <v>0.3543545774805636</v>
       </c>
       <c r="D4">
-        <v>0.04590604704634416</v>
+        <v>0.1456744167182471</v>
       </c>
       <c r="E4">
-        <v>0.04013650070579899</v>
+        <v>0.1447691074980675</v>
       </c>
       <c r="F4">
-        <v>0.9710909259919873</v>
+        <v>1.661507740557155</v>
       </c>
       <c r="G4">
-        <v>0.8082014243495479</v>
+        <v>1.05563305011961</v>
       </c>
       <c r="H4">
-        <v>0.5145007883510431</v>
+        <v>1.039218807273642</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04608086881716211</v>
+        <v>0.1774986309512512</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.04763293030364402</v>
+        <v>0.1324822251331739</v>
       </c>
       <c r="M4">
-        <v>2.145609973224182</v>
+        <v>1.138260951558081</v>
       </c>
       <c r="N4">
-        <v>3.352619636228241</v>
+        <v>1.601396256336074</v>
       </c>
       <c r="O4">
-        <v>2.739931843773775</v>
+        <v>4.251577047033095</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.14898145808111</v>
+        <v>0.3547184730546888</v>
       </c>
       <c r="D5">
-        <v>0.04605193586978373</v>
+        <v>0.1459539630109958</v>
       </c>
       <c r="E5">
-        <v>0.04066878754216852</v>
+        <v>0.1452217696669855</v>
       </c>
       <c r="F5">
-        <v>0.9484263366482963</v>
+        <v>1.65959512234943</v>
       </c>
       <c r="G5">
-        <v>0.7841656819498724</v>
+        <v>1.052063025264303</v>
       </c>
       <c r="H5">
-        <v>0.5049825559096632</v>
+        <v>1.038970192343456</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04697794677752309</v>
+        <v>0.178171190577757</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.04789473877283079</v>
+        <v>0.1327096285888629</v>
       </c>
       <c r="M5">
-        <v>2.060453826663661</v>
+        <v>1.111040843189642</v>
       </c>
       <c r="N5">
-        <v>3.243037671773152</v>
+        <v>1.565415292377224</v>
       </c>
       <c r="O5">
-        <v>2.668920497024118</v>
+        <v>4.243374445446108</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1486738231544393</v>
+        <v>0.3547817161373246</v>
       </c>
       <c r="D6">
-        <v>0.04607711118886826</v>
+        <v>0.1460011073335004</v>
       </c>
       <c r="E6">
-        <v>0.04075849854251157</v>
+        <v>0.1452978508943872</v>
       </c>
       <c r="F6">
-        <v>0.9446905350726809</v>
+        <v>1.659292160745096</v>
       </c>
       <c r="G6">
-        <v>0.7801974880370608</v>
+        <v>1.05148086615128</v>
       </c>
       <c r="H6">
-        <v>0.5034157364746363</v>
+        <v>1.038936833112885</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04712887501526009</v>
+        <v>0.1782841452032002</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.04793880062423916</v>
+        <v>0.1327478950833676</v>
       </c>
       <c r="M6">
-        <v>2.04630671418515</v>
+        <v>1.106518921028581</v>
       </c>
       <c r="N6">
-        <v>3.224848447231466</v>
+        <v>1.559444173895713</v>
       </c>
       <c r="O6">
-        <v>2.657206104316657</v>
+        <v>4.242051315385083</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1508366946279835</v>
+        <v>0.3543592961368631</v>
       </c>
       <c r="D7">
-        <v>0.04590795052090968</v>
+        <v>0.1456781381219088</v>
       </c>
       <c r="E7">
-        <v>0.04014358996881828</v>
+        <v>0.1447751507776633</v>
       </c>
       <c r="F7">
-        <v>0.9707833877215819</v>
+        <v>1.661480965607851</v>
       </c>
       <c r="G7">
-        <v>0.8078757111094177</v>
+        <v>1.055584189979584</v>
       </c>
       <c r="H7">
-        <v>0.5143714951307174</v>
+        <v>1.039214923210551</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0460928342576219</v>
+        <v>0.1775076157275155</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.04763642163151616</v>
+        <v>0.1324852580451559</v>
       </c>
       <c r="M7">
-        <v>2.144461992903558</v>
+        <v>1.137893990521746</v>
       </c>
       <c r="N7">
-        <v>3.351141312025106</v>
+        <v>1.600910773136775</v>
       </c>
       <c r="O7">
-        <v>2.738968930575595</v>
+        <v>4.251463815275827</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.161096686302642</v>
+        <v>0.3529051345945078</v>
       </c>
       <c r="D8">
-        <v>0.04530304822134568</v>
+        <v>0.1443583885089232</v>
       </c>
       <c r="E8">
-        <v>0.03762834235130974</v>
+        <v>0.1426019423416083</v>
       </c>
       <c r="F8">
-        <v>1.090198605104788</v>
+        <v>1.673267308302755</v>
       </c>
       <c r="G8">
-        <v>0.9335917965454428</v>
+        <v>1.075240134167117</v>
       </c>
       <c r="H8">
-        <v>0.5648183613093636</v>
+        <v>1.041593857838507</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04181675252197259</v>
+        <v>0.1742667050750271</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.0463881431578379</v>
+        <v>0.1313997669142815</v>
       </c>
       <c r="M8">
-        <v>2.576629328704797</v>
+        <v>1.276028420190798</v>
       </c>
       <c r="N8">
-        <v>3.909534619691811</v>
+        <v>1.784371078146592</v>
       </c>
       <c r="O8">
-        <v>3.111720877447112</v>
+        <v>4.298659212458261</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1841398265706573</v>
+        <v>0.3515289957243368</v>
       </c>
       <c r="D9">
-        <v>0.04466028320371151</v>
+        <v>0.1421487001200674</v>
       </c>
       <c r="E9">
-        <v>0.03346514003509071</v>
+        <v>0.1388200844130978</v>
       </c>
       <c r="F9">
-        <v>1.342399373240781</v>
+        <v>1.704045332490722</v>
       </c>
       <c r="G9">
-        <v>1.195550558880313</v>
+        <v>1.11937696905548</v>
       </c>
       <c r="H9">
-        <v>0.6724840027065966</v>
+        <v>1.050401493878468</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03459146866980145</v>
+        <v>0.1685805188267242</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.04425424463109096</v>
+        <v>0.129533943900114</v>
       </c>
       <c r="M9">
-        <v>3.421220674529692</v>
+        <v>1.545597036297991</v>
       </c>
       <c r="N9">
-        <v>5.00968640618845</v>
+        <v>2.145584680200557</v>
       </c>
       <c r="O9">
-        <v>3.893570401574436</v>
+        <v>4.411611586767208</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2032109838216769</v>
+        <v>0.3514201554665419</v>
       </c>
       <c r="D10">
-        <v>0.04455410462956877</v>
+        <v>0.140755295079483</v>
       </c>
       <c r="E10">
-        <v>0.03093196246513141</v>
+        <v>0.1363344045576493</v>
       </c>
       <c r="F10">
-        <v>1.541443161263416</v>
+        <v>1.731354270316118</v>
       </c>
       <c r="G10">
-        <v>1.400081245872599</v>
+        <v>1.155242780855161</v>
       </c>
       <c r="H10">
-        <v>0.7581435664237119</v>
+        <v>1.05940362529617</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03008773838371148</v>
+        <v>0.1648121650986543</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.04288229978683944</v>
+        <v>0.1283221969764021</v>
       </c>
       <c r="M10">
-        <v>4.04076241710743</v>
+        <v>1.742718355927494</v>
       </c>
       <c r="N10">
-        <v>5.822536301880632</v>
+        <v>2.411650076792796</v>
       </c>
       <c r="O10">
-        <v>4.507237074628506</v>
+        <v>4.507111198039581</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2124385060322709</v>
+        <v>0.3515671710755583</v>
       </c>
       <c r="D11">
-        <v>0.0445935296772717</v>
+        <v>0.1401712293721182</v>
       </c>
       <c r="E11">
-        <v>0.02990707393157788</v>
+        <v>0.1352672687811207</v>
       </c>
       <c r="F11">
-        <v>1.635651308394586</v>
+        <v>1.744802999042065</v>
       </c>
       <c r="G11">
-        <v>1.496397342255619</v>
+        <v>1.17231242861908</v>
       </c>
       <c r="H11">
-        <v>0.7988360877499474</v>
+        <v>1.064049966642813</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02823686301491435</v>
+        <v>0.1631869937714026</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.04230168147368119</v>
+        <v>0.1278052402267491</v>
       </c>
       <c r="M11">
-        <v>4.322606084853049</v>
+        <v>1.832165532483288</v>
       </c>
       <c r="N11">
-        <v>6.193676142383367</v>
+        <v>2.532798010411398</v>
       </c>
       <c r="O11">
-        <v>4.796934786830207</v>
+        <v>4.553291016980779</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2160199399127976</v>
+        <v>0.3516511458907559</v>
       </c>
       <c r="D12">
-        <v>0.04462181343114935</v>
+        <v>0.139957211197661</v>
       </c>
       <c r="E12">
-        <v>0.02953851448005462</v>
+        <v>0.1348723288916389</v>
       </c>
       <c r="F12">
-        <v>1.671913306098176</v>
+        <v>1.750043526625703</v>
       </c>
       <c r="G12">
-        <v>1.533399740932595</v>
+        <v>1.178885140369061</v>
       </c>
       <c r="H12">
-        <v>0.8145207893935549</v>
+        <v>1.065888755017795</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02756655538027886</v>
+        <v>0.1625844201443272</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.04208815598702031</v>
+        <v>0.1276143920379837</v>
       </c>
       <c r="M12">
-        <v>4.429353621659416</v>
+        <v>1.866001998021858</v>
       </c>
       <c r="N12">
-        <v>6.334445695184741</v>
+        <v>2.578686026819071</v>
       </c>
       <c r="O12">
-        <v>4.908333886560627</v>
+        <v>4.571172727298972</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2152446059969577</v>
+        <v>0.3516318009367154</v>
       </c>
       <c r="D13">
-        <v>0.04461511574524479</v>
+        <v>0.1400029857310408</v>
       </c>
       <c r="E13">
-        <v>0.0296170008970309</v>
+        <v>0.1349569785916893</v>
       </c>
       <c r="F13">
-        <v>1.664076484565868</v>
+        <v>1.748908307893259</v>
       </c>
       <c r="G13">
-        <v>1.525406066453769</v>
+        <v>1.177464744240069</v>
       </c>
       <c r="H13">
-        <v>0.8111301037690168</v>
+        <v>1.06548921039672</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02770952261678339</v>
+        <v>0.1627136233777042</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.04213385901913114</v>
+        <v>0.1276552764009971</v>
       </c>
       <c r="M13">
-        <v>4.40636245158224</v>
+        <v>1.858716324349274</v>
       </c>
       <c r="N13">
-        <v>6.304117852990885</v>
+        <v>2.568802760504354</v>
       </c>
       <c r="O13">
-        <v>4.884263562889146</v>
+        <v>4.567304024920531</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2127313587460833</v>
+        <v>0.3515735122499848</v>
       </c>
       <c r="D14">
-        <v>0.04459558453584833</v>
+        <v>0.1401534786119285</v>
       </c>
       <c r="E14">
-        <v>0.02987635338220862</v>
+        <v>0.1352345931535179</v>
       </c>
       <c r="F14">
-        <v>1.638622464587556</v>
+        <v>1.745231176921166</v>
       </c>
       <c r="G14">
-        <v>1.499430582768781</v>
+        <v>1.172850986820805</v>
       </c>
       <c r="H14">
-        <v>0.8001207951559763</v>
+        <v>1.064199654868958</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02818109083341902</v>
+        <v>0.1631371620722017</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.04228398698252178</v>
+        <v>0.1277894406783773</v>
       </c>
       <c r="M14">
-        <v>4.331387767297699</v>
+        <v>1.834950002141127</v>
       </c>
       <c r="N14">
-        <v>6.20525260837212</v>
+        <v>2.536573031141927</v>
       </c>
       <c r="O14">
-        <v>4.80606455211489</v>
+        <v>4.554754246209427</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2112035169231348</v>
+        <v>0.3515414959303911</v>
       </c>
       <c r="D15">
-        <v>0.04458538307076054</v>
+        <v>0.1402465914240807</v>
       </c>
       <c r="E15">
-        <v>0.03003779690724695</v>
+        <v>0.1354058335692931</v>
       </c>
       <c r="F15">
-        <v>1.623109537553916</v>
+        <v>1.74299808255445</v>
       </c>
       <c r="G15">
-        <v>1.483590650405546</v>
+        <v>1.17003910791027</v>
       </c>
       <c r="H15">
-        <v>0.7934139800853757</v>
+        <v>1.063420096273262</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02847398793839062</v>
+        <v>0.1633982653970856</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.04237677329231104</v>
+        <v>0.1278722593932073</v>
       </c>
       <c r="M15">
-        <v>4.285466717146818</v>
+        <v>1.820387766121613</v>
       </c>
       <c r="N15">
-        <v>6.144725282947206</v>
+        <v>2.516832814637837</v>
       </c>
       <c r="O15">
-        <v>4.758392047222344</v>
+        <v>4.547118535679772</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2026197028810799</v>
+        <v>0.3514145059394167</v>
       </c>
       <c r="D16">
-        <v>0.04455335542334282</v>
+        <v>0.1407944667161871</v>
       </c>
       <c r="E16">
-        <v>0.03100160816422282</v>
+        <v>0.1364054256200617</v>
       </c>
       <c r="F16">
-        <v>1.535365206648422</v>
+        <v>1.730496029283216</v>
       </c>
       <c r="G16">
-        <v>1.393857551807969</v>
+        <v>1.15414244515398</v>
       </c>
       <c r="H16">
-        <v>0.7555212071665665</v>
+        <v>1.059111072634948</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03021285736086821</v>
+        <v>0.1649201692118378</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.04292112715475227</v>
+        <v>0.1283566695789631</v>
       </c>
       <c r="M16">
-        <v>4.022344961482872</v>
+        <v>1.736868003509571</v>
       </c>
       <c r="N16">
-        <v>5.798311506435653</v>
+        <v>2.403734680770071</v>
       </c>
       <c r="O16">
-        <v>4.488531849418621</v>
+        <v>4.50414838180717</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1975005353707502</v>
+        <v>0.3513869674881676</v>
       </c>
       <c r="D17">
-        <v>0.04455668637063681</v>
+        <v>0.1411433210920023</v>
       </c>
       <c r="E17">
-        <v>0.03162636004920572</v>
+        <v>0.137034945493296</v>
       </c>
       <c r="F17">
-        <v>1.482516484566574</v>
+        <v>1.723089346337218</v>
       </c>
       <c r="G17">
-        <v>1.339687980803177</v>
+        <v>1.144583763528402</v>
       </c>
       <c r="H17">
-        <v>0.7327357780944794</v>
+        <v>1.056608846548642</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03133174337448352</v>
+        <v>0.1658766462089591</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.04326627097939983</v>
+        <v>0.1286626060317673</v>
       </c>
       <c r="M17">
-        <v>3.860943023370638</v>
+        <v>1.685571756057243</v>
       </c>
       <c r="N17">
-        <v>5.586169236567912</v>
+        <v>2.334378555150352</v>
       </c>
       <c r="O17">
-        <v>4.325804520124791</v>
+        <v>4.478489123378438</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.194607575631693</v>
+        <v>0.3513896236381839</v>
       </c>
       <c r="D18">
-        <v>0.04456681224609937</v>
+        <v>0.1413486608168384</v>
       </c>
       <c r="E18">
-        <v>0.03199762109642013</v>
+        <v>0.1374030153451375</v>
       </c>
       <c r="F18">
-        <v>1.452460053742314</v>
+        <v>1.718925750128733</v>
       </c>
       <c r="G18">
-        <v>1.308835433520926</v>
+        <v>1.139156821092882</v>
       </c>
       <c r="H18">
-        <v>0.7197908550711816</v>
+        <v>1.055221513001953</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03199378772750361</v>
+        <v>0.1664351682172587</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.04346887626421747</v>
+        <v>0.1288417994893294</v>
       </c>
       <c r="M18">
-        <v>3.768108716379956</v>
+        <v>1.656046576288148</v>
       </c>
       <c r="N18">
-        <v>5.46427763917535</v>
+        <v>2.294497683618829</v>
       </c>
       <c r="O18">
-        <v>4.233188140758614</v>
+        <v>4.463988120995225</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.193636678211675</v>
+        <v>0.3513936982925827</v>
       </c>
       <c r="D19">
-        <v>0.04457162907014478</v>
+        <v>0.1414189906730208</v>
       </c>
       <c r="E19">
-        <v>0.03212533539444706</v>
+        <v>0.1375286652677783</v>
       </c>
       <c r="F19">
-        <v>1.442340220327623</v>
+        <v>1.717532598846219</v>
       </c>
       <c r="G19">
-        <v>1.29843985728246</v>
+        <v>1.137331527665623</v>
       </c>
       <c r="H19">
-        <v>0.7154347289792327</v>
+        <v>1.054760694648593</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0322210582671989</v>
+        <v>0.1666257126785773</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.04353817432641449</v>
+        <v>0.1289030260377757</v>
       </c>
       <c r="M19">
-        <v>3.7366760811273</v>
+        <v>1.646046353384165</v>
       </c>
       <c r="N19">
-        <v>5.423028190458808</v>
+        <v>2.280996718963991</v>
       </c>
       <c r="O19">
-        <v>4.201992880953981</v>
+        <v>4.459122533500249</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.198040100101494</v>
+        <v>0.3513879844749681</v>
       </c>
       <c r="D20">
-        <v>0.04455547688913697</v>
+        <v>0.1411056998143749</v>
       </c>
       <c r="E20">
-        <v>0.03155861191343678</v>
+        <v>0.1369673123296709</v>
       </c>
       <c r="F20">
-        <v>1.488106630585818</v>
+        <v>1.72386780763614</v>
       </c>
       <c r="G20">
-        <v>1.345422514974729</v>
+        <v>1.14559395492131</v>
       </c>
       <c r="H20">
-        <v>0.735144509568471</v>
+        <v>1.056869842935669</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03121070746295196</v>
+        <v>0.1657739598671579</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.04322910613407061</v>
+        <v>0.1286297047200939</v>
       </c>
       <c r="M20">
-        <v>3.878124432690541</v>
+        <v>1.691034517533609</v>
       </c>
       <c r="N20">
-        <v>5.608738789152653</v>
+        <v>2.34176053310108</v>
       </c>
       <c r="O20">
-        <v>4.3430244235999</v>
+        <v>4.4811939359127</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.213467129230537</v>
+        <v>0.3515898645686377</v>
       </c>
       <c r="D21">
-        <v>0.0446009527397031</v>
+        <v>0.1401090810764885</v>
       </c>
       <c r="E21">
-        <v>0.02979963476263858</v>
+        <v>0.135152802282037</v>
       </c>
       <c r="F21">
-        <v>1.646082473599733</v>
+        <v>1.746307226287513</v>
       </c>
       <c r="G21">
-        <v>1.507045344617438</v>
+        <v>1.174203203307201</v>
       </c>
       <c r="H21">
-        <v>0.8033467947996655</v>
+        <v>1.064576275433467</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02804173221161221</v>
+        <v>0.1630124096416861</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.04223971792031023</v>
+        <v>0.1277499001938693</v>
       </c>
       <c r="M21">
-        <v>4.353408965971752</v>
+        <v>1.841931727150097</v>
       </c>
       <c r="N21">
-        <v>6.234285315425836</v>
+        <v>2.546039395052844</v>
       </c>
       <c r="O21">
-        <v>4.828985916843294</v>
+        <v>4.558429708912627</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2240617790184132</v>
+        <v>0.3518867975492554</v>
       </c>
       <c r="D22">
-        <v>0.04470889488090179</v>
+        <v>0.1394994339779529</v>
       </c>
       <c r="E22">
-        <v>0.02876458295500139</v>
+        <v>0.1340203204498431</v>
       </c>
       <c r="F22">
-        <v>1.752784933278519</v>
+        <v>1.761834225716427</v>
       </c>
       <c r="G22">
-        <v>1.615793201100104</v>
+        <v>1.193535380062798</v>
       </c>
       <c r="H22">
-        <v>0.8495401754740897</v>
+        <v>1.070075236873947</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0261499630640305</v>
+        <v>0.1612824549919587</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.04163010466332295</v>
+        <v>0.1272035211619098</v>
       </c>
       <c r="M22">
-        <v>4.664158521345414</v>
+        <v>1.94034500484716</v>
       </c>
       <c r="N22">
-        <v>6.644454917925486</v>
+        <v>2.679614937623569</v>
       </c>
       <c r="O22">
-        <v>5.156576776254155</v>
+        <v>4.611207126307647</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2183576016786759</v>
+        <v>0.3517132078045933</v>
       </c>
       <c r="D23">
-        <v>0.04464386868404802</v>
+        <v>0.1398210006158251</v>
       </c>
       <c r="E23">
-        <v>0.02930610518476939</v>
+        <v>0.1346198561190173</v>
       </c>
       <c r="F23">
-        <v>1.69549806395618</v>
+        <v>1.753468248603738</v>
       </c>
       <c r="G23">
-        <v>1.557446302274741</v>
+        <v>1.183159266364612</v>
       </c>
       <c r="H23">
-        <v>0.824728101758808</v>
+        <v>1.067098013252263</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02714248249323958</v>
+        <v>0.1621989013602825</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.04195205049994399</v>
+        <v>0.1274925201791319</v>
       </c>
       <c r="M23">
-        <v>4.49828772010521</v>
+        <v>1.8878398875286</v>
       </c>
       <c r="N23">
-        <v>6.425406552857794</v>
+        <v>2.608318417713463</v>
       </c>
       <c r="O23">
-        <v>4.98075723598896</v>
+        <v>4.582828133570729</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.197796007362868</v>
+        <v>0.3513874671098165</v>
       </c>
       <c r="D24">
-        <v>0.0445559981759942</v>
+        <v>0.1411226935084144</v>
       </c>
       <c r="E24">
-        <v>0.03158920330098169</v>
+        <v>0.1369978701253158</v>
       </c>
       <c r="F24">
-        <v>1.485578311559536</v>
+        <v>1.723515570608555</v>
       </c>
       <c r="G24">
-        <v>1.342829032358139</v>
+        <v>1.145137034133683</v>
       </c>
       <c r="H24">
-        <v>0.7340550421656076</v>
+        <v>1.056751686887225</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03126536945574632</v>
+        <v>0.1658203574799675</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.0432458953553283</v>
+        <v>0.1286445691015068</v>
       </c>
       <c r="M24">
-        <v>3.870356850243425</v>
+        <v>1.688564909626649</v>
       </c>
       <c r="N24">
-        <v>5.598534872952314</v>
+        <v>2.338423162681011</v>
       </c>
       <c r="O24">
-        <v>4.335236397947654</v>
+        <v>4.479970308835107</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1775575547214316</v>
+        <v>0.3517430381108113</v>
       </c>
       <c r="D25">
-        <v>0.04477252934103504</v>
+        <v>0.1427060371992397</v>
       </c>
       <c r="E25">
-        <v>0.03450341651888955</v>
+        <v>0.1397917753362279</v>
       </c>
       <c r="F25">
-        <v>1.271970186143037</v>
+        <v>1.694896043801592</v>
       </c>
       <c r="G25">
-        <v>1.122769579161485</v>
+        <v>1.106835103166674</v>
       </c>
       <c r="H25">
-        <v>0.6423008630008553</v>
+        <v>1.047574717685251</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03641223404932337</v>
+        <v>0.1700470029199002</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.04479745917605094</v>
+        <v>0.1300106810094785</v>
       </c>
       <c r="M25">
-        <v>3.19297145808504</v>
+        <v>1.472825668018615</v>
       </c>
       <c r="N25">
-        <v>4.711376141711924</v>
+        <v>2.047732773542464</v>
       </c>
       <c r="O25">
-        <v>3.675802126634551</v>
+        <v>4.378862964720952</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_131/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_131/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3526108804440327</v>
+        <v>0.1640620160499395</v>
       </c>
       <c r="D2">
-        <v>0.144026428343949</v>
+        <v>0.04517471085991787</v>
       </c>
       <c r="E2">
-        <v>0.1420455687202589</v>
+        <v>0.03699690960506352</v>
       </c>
       <c r="F2">
-        <v>1.676978675952185</v>
+        <v>1.123679010579721</v>
       </c>
       <c r="G2">
-        <v>1.080943217832854</v>
+        <v>0.9686070895636476</v>
       </c>
       <c r="H2">
-        <v>1.042518565243768</v>
+        <v>0.5790360541088972</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1734338221595539</v>
+        <v>0.04073326320957094</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.13112348263809</v>
+        <v>0.0460710105617963</v>
       </c>
       <c r="M2">
-        <v>1.313372010599664</v>
+        <v>2.693504444475451</v>
       </c>
       <c r="N2">
-        <v>1.834185285127148</v>
+        <v>4.061131206972334</v>
       </c>
       <c r="O2">
-        <v>4.312824721049111</v>
+        <v>3.215878535170958</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3535761488437004</v>
+        <v>0.1556743632563524</v>
       </c>
       <c r="D3">
-        <v>0.1450179076528251</v>
+        <v>0.0455872427390851</v>
       </c>
       <c r="E3">
-        <v>0.143695570425499</v>
+        <v>0.03888509113764993</v>
       </c>
       <c r="F3">
-        <v>1.666795739030661</v>
+        <v>1.027874622046724</v>
       </c>
       <c r="G3">
-        <v>1.064826376541674</v>
+        <v>0.8681566587234357</v>
       </c>
       <c r="H3">
-        <v>1.040150824912715</v>
+        <v>0.5384328157125964</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1759001100428419</v>
+        <v>0.04396111296067229</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1319447406444088</v>
+        <v>0.04701447014875804</v>
       </c>
       <c r="M3">
-        <v>1.204970989054431</v>
+        <v>2.354301306575209</v>
       </c>
       <c r="N3">
-        <v>1.689828024268877</v>
+        <v>3.621820026515138</v>
       </c>
       <c r="O3">
-        <v>4.27328729660843</v>
+        <v>2.917445870406823</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3543545774805636</v>
+        <v>0.1508623788838719</v>
       </c>
       <c r="D4">
-        <v>0.1456744167182471</v>
+        <v>0.04590604704616652</v>
       </c>
       <c r="E4">
-        <v>0.1447691074980675</v>
+        <v>0.04013650070579455</v>
       </c>
       <c r="F4">
-        <v>1.661507740557155</v>
+        <v>0.9710909259919873</v>
       </c>
       <c r="G4">
-        <v>1.05563305011961</v>
+        <v>0.8082014243495337</v>
       </c>
       <c r="H4">
-        <v>1.039218807273642</v>
+        <v>0.5145007883511568</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1774986309512512</v>
+        <v>0.04608086881717455</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1324822251331739</v>
+        <v>0.04763293030363513</v>
       </c>
       <c r="M4">
-        <v>1.138260951558081</v>
+        <v>2.145609973224197</v>
       </c>
       <c r="N4">
-        <v>1.601396256336074</v>
+        <v>3.352619636228241</v>
       </c>
       <c r="O4">
-        <v>4.251577047033095</v>
+        <v>2.739931843773775</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3547184730546888</v>
+        <v>0.1489814580810815</v>
       </c>
       <c r="D5">
-        <v>0.1459539630109958</v>
+        <v>0.04605193586966649</v>
       </c>
       <c r="E5">
-        <v>0.1452217696669855</v>
+        <v>0.04066878754218273</v>
       </c>
       <c r="F5">
-        <v>1.65959512234943</v>
+        <v>0.9484263366482821</v>
       </c>
       <c r="G5">
-        <v>1.052063025264303</v>
+        <v>0.7841656819498724</v>
       </c>
       <c r="H5">
-        <v>1.038970192343456</v>
+        <v>0.5049825559096632</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.178171190577757</v>
+        <v>0.04697794677762079</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1327096285888629</v>
+        <v>0.04789473877274375</v>
       </c>
       <c r="M5">
-        <v>1.111040843189642</v>
+        <v>2.060453826663661</v>
       </c>
       <c r="N5">
-        <v>1.565415292377224</v>
+        <v>3.243037671773152</v>
       </c>
       <c r="O5">
-        <v>4.243374445446108</v>
+        <v>2.668920497024061</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3547817161373246</v>
+        <v>0.148673823154553</v>
       </c>
       <c r="D6">
-        <v>0.1460011073335004</v>
+        <v>0.0460771111889855</v>
       </c>
       <c r="E6">
-        <v>0.1452978508943872</v>
+        <v>0.04075849854251157</v>
       </c>
       <c r="F6">
-        <v>1.659292160745096</v>
+        <v>0.9446905350726809</v>
       </c>
       <c r="G6">
-        <v>1.05148086615128</v>
+        <v>0.7801974880371176</v>
       </c>
       <c r="H6">
-        <v>1.038936833112885</v>
+        <v>0.5034157364746221</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1782841452032002</v>
+        <v>0.04712887501526364</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1327478950833676</v>
+        <v>0.04793880062424094</v>
       </c>
       <c r="M6">
-        <v>1.106518921028581</v>
+        <v>2.046306714185164</v>
       </c>
       <c r="N6">
-        <v>1.559444173895713</v>
+        <v>3.224848447231494</v>
       </c>
       <c r="O6">
-        <v>4.242051315385083</v>
+        <v>2.6572061043166</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3543592961368631</v>
+        <v>0.1508366946277135</v>
       </c>
       <c r="D7">
-        <v>0.1456781381219088</v>
+        <v>0.04590795052078533</v>
       </c>
       <c r="E7">
-        <v>0.1447751507776633</v>
+        <v>0.04014358996879963</v>
       </c>
       <c r="F7">
-        <v>1.661480965607851</v>
+        <v>0.9707833877215819</v>
       </c>
       <c r="G7">
-        <v>1.055584189979584</v>
+        <v>0.8078757111094035</v>
       </c>
       <c r="H7">
-        <v>1.039214923210551</v>
+        <v>0.5143714951307317</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1775076157275155</v>
+        <v>0.04609283425752331</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1324852580451559</v>
+        <v>0.04763642163150905</v>
       </c>
       <c r="M7">
-        <v>1.137893990521746</v>
+        <v>2.144461992903558</v>
       </c>
       <c r="N7">
-        <v>1.600910773136775</v>
+        <v>3.351141312024993</v>
       </c>
       <c r="O7">
-        <v>4.251463815275827</v>
+        <v>2.738968930575538</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3529051345945078</v>
+        <v>0.1610966863022298</v>
       </c>
       <c r="D8">
-        <v>0.1443583885089232</v>
+        <v>0.04530304822127462</v>
       </c>
       <c r="E8">
-        <v>0.1426019423416083</v>
+        <v>0.03762834235131329</v>
       </c>
       <c r="F8">
-        <v>1.673267308302755</v>
+        <v>1.09019860510476</v>
       </c>
       <c r="G8">
-        <v>1.075240134167117</v>
+        <v>0.933591796545528</v>
       </c>
       <c r="H8">
-        <v>1.041593857838507</v>
+        <v>0.5648183613092357</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1742667050750271</v>
+        <v>0.04181675252198236</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1313997669142815</v>
+        <v>0.04638814315784501</v>
       </c>
       <c r="M8">
-        <v>1.276028420190798</v>
+        <v>2.576629328704797</v>
       </c>
       <c r="N8">
-        <v>1.784371078146592</v>
+        <v>3.909534619691698</v>
       </c>
       <c r="O8">
-        <v>4.298659212458261</v>
+        <v>3.111720877447112</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3515289957243368</v>
+        <v>0.1841398265705294</v>
       </c>
       <c r="D9">
-        <v>0.1421487001200674</v>
+        <v>0.04466028320370796</v>
       </c>
       <c r="E9">
-        <v>0.1388200844130978</v>
+        <v>0.03346514003508894</v>
       </c>
       <c r="F9">
-        <v>1.704045332490722</v>
+        <v>1.342399373240781</v>
       </c>
       <c r="G9">
-        <v>1.11937696905548</v>
+        <v>1.195550558880313</v>
       </c>
       <c r="H9">
-        <v>1.050401493878468</v>
+        <v>0.6724840027065682</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1685805188267242</v>
+        <v>0.03459146866983165</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.129533943900114</v>
+        <v>0.04425424463114247</v>
       </c>
       <c r="M9">
-        <v>1.545597036297991</v>
+        <v>3.421220674529678</v>
       </c>
       <c r="N9">
-        <v>2.145584680200557</v>
+        <v>5.00968640618828</v>
       </c>
       <c r="O9">
-        <v>4.411611586767208</v>
+        <v>3.89357040157438</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3514201554665419</v>
+        <v>0.2032109838219753</v>
       </c>
       <c r="D10">
-        <v>0.140755295079483</v>
+        <v>0.04455410462945153</v>
       </c>
       <c r="E10">
-        <v>0.1363344045576493</v>
+        <v>0.03093196246513052</v>
       </c>
       <c r="F10">
-        <v>1.731354270316118</v>
+        <v>1.541443161263388</v>
       </c>
       <c r="G10">
-        <v>1.155242780855161</v>
+        <v>1.400081245872542</v>
       </c>
       <c r="H10">
-        <v>1.05940362529617</v>
+        <v>0.7581435664237119</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1648121650986543</v>
+        <v>0.03008773838365286</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1283221969764021</v>
+        <v>0.04288229978678615</v>
       </c>
       <c r="M10">
-        <v>1.742718355927494</v>
+        <v>4.040762417107459</v>
       </c>
       <c r="N10">
-        <v>2.411650076792796</v>
+        <v>5.822536301880746</v>
       </c>
       <c r="O10">
-        <v>4.507111198039581</v>
+        <v>4.507237074628506</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3515671710755583</v>
+        <v>0.2124385060322709</v>
       </c>
       <c r="D11">
-        <v>0.1401712293721182</v>
+        <v>0.04459352967718289</v>
       </c>
       <c r="E11">
-        <v>0.1352672687811207</v>
+        <v>0.0299070739315912</v>
       </c>
       <c r="F11">
-        <v>1.744802999042065</v>
+        <v>1.6356513083946</v>
       </c>
       <c r="G11">
-        <v>1.17231242861908</v>
+        <v>1.496397342255563</v>
       </c>
       <c r="H11">
-        <v>1.064049966642813</v>
+        <v>0.7988360877499474</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1631869937714026</v>
+        <v>0.02823686301491168</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1278052402267491</v>
+        <v>0.04230168147366697</v>
       </c>
       <c r="M11">
-        <v>1.832165532483288</v>
+        <v>4.322606084853106</v>
       </c>
       <c r="N11">
-        <v>2.532798010411398</v>
+        <v>6.19367614238331</v>
       </c>
       <c r="O11">
-        <v>4.553291016980779</v>
+        <v>4.796934786830207</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3516511458907559</v>
+        <v>0.2160199399128118</v>
       </c>
       <c r="D12">
-        <v>0.139957211197661</v>
+        <v>0.04462181343126304</v>
       </c>
       <c r="E12">
-        <v>0.1348723288916389</v>
+        <v>0.02953851448003242</v>
       </c>
       <c r="F12">
-        <v>1.750043526625703</v>
+        <v>1.671913306098148</v>
       </c>
       <c r="G12">
-        <v>1.178885140369061</v>
+        <v>1.533399740932566</v>
       </c>
       <c r="H12">
-        <v>1.065888755017795</v>
+        <v>0.8145207893935549</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1625844201443272</v>
+        <v>0.02756655538021668</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1276143920379837</v>
+        <v>0.04208815598707716</v>
       </c>
       <c r="M12">
-        <v>1.866001998021858</v>
+        <v>4.429353621659459</v>
       </c>
       <c r="N12">
-        <v>2.578686026819071</v>
+        <v>6.334445695184741</v>
       </c>
       <c r="O12">
-        <v>4.571172727298972</v>
+        <v>4.908333886560627</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3516318009367154</v>
+        <v>0.2152446059969009</v>
       </c>
       <c r="D13">
-        <v>0.1400029857310408</v>
+        <v>0.04461511574524479</v>
       </c>
       <c r="E13">
-        <v>0.1349569785916893</v>
+        <v>0.02961700089699448</v>
       </c>
       <c r="F13">
-        <v>1.748908307893259</v>
+        <v>1.66407648456584</v>
       </c>
       <c r="G13">
-        <v>1.177464744240069</v>
+        <v>1.525406066453712</v>
       </c>
       <c r="H13">
-        <v>1.06548921039672</v>
+        <v>0.8111301037690168</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1627136233777042</v>
+        <v>0.02770952261675674</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1276552764009971</v>
+        <v>0.04213385901912403</v>
       </c>
       <c r="M13">
-        <v>1.858716324349274</v>
+        <v>4.406362451582268</v>
       </c>
       <c r="N13">
-        <v>2.568802760504354</v>
+        <v>6.304117852990885</v>
       </c>
       <c r="O13">
-        <v>4.567304024920531</v>
+        <v>4.884263562889089</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3515735122499848</v>
+        <v>0.2127313587461259</v>
       </c>
       <c r="D14">
-        <v>0.1401534786119285</v>
+        <v>0.04459558453587675</v>
       </c>
       <c r="E14">
-        <v>0.1352345931535179</v>
+        <v>0.02987635338221217</v>
       </c>
       <c r="F14">
-        <v>1.745231176921166</v>
+        <v>1.638622464587556</v>
       </c>
       <c r="G14">
-        <v>1.172850986820805</v>
+        <v>1.499430582768753</v>
       </c>
       <c r="H14">
-        <v>1.064199654868958</v>
+        <v>0.80012079515609</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1631371620722017</v>
+        <v>0.02818109083337816</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1277894406783773</v>
+        <v>0.04228398698264968</v>
       </c>
       <c r="M14">
-        <v>1.834950002141127</v>
+        <v>4.331387767297713</v>
       </c>
       <c r="N14">
-        <v>2.536573031141927</v>
+        <v>6.20525260837212</v>
       </c>
       <c r="O14">
-        <v>4.554754246209427</v>
+        <v>4.80606455211489</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3515414959303911</v>
+        <v>0.2112035169235185</v>
       </c>
       <c r="D15">
-        <v>0.1402465914240807</v>
+        <v>0.04458538307084581</v>
       </c>
       <c r="E15">
-        <v>0.1354058335692931</v>
+        <v>0.03003779690724695</v>
       </c>
       <c r="F15">
-        <v>1.74299808255445</v>
+        <v>1.623109537553916</v>
       </c>
       <c r="G15">
-        <v>1.17003910791027</v>
+        <v>1.483590650405546</v>
       </c>
       <c r="H15">
-        <v>1.063420096273262</v>
+        <v>0.7934139800854894</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1633982653970856</v>
+        <v>0.02847398793844658</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1278722593932073</v>
+        <v>0.0423767732923217</v>
       </c>
       <c r="M15">
-        <v>1.820387766121613</v>
+        <v>4.285466717146804</v>
       </c>
       <c r="N15">
-        <v>2.516832814637837</v>
+        <v>6.14472528294732</v>
       </c>
       <c r="O15">
-        <v>4.547118535679772</v>
+        <v>4.758392047222287</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3514145059394167</v>
+        <v>0.2026197028811936</v>
       </c>
       <c r="D16">
-        <v>0.1407944667161871</v>
+        <v>0.04455335542342809</v>
       </c>
       <c r="E16">
-        <v>0.1364054256200617</v>
+        <v>0.03100160816422282</v>
       </c>
       <c r="F16">
-        <v>1.730496029283216</v>
+        <v>1.535365206648422</v>
       </c>
       <c r="G16">
-        <v>1.15414244515398</v>
+        <v>1.393857551808026</v>
       </c>
       <c r="H16">
-        <v>1.059111072634948</v>
+        <v>0.755521207166538</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1649201692118378</v>
+        <v>0.03021285736088242</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1283566695789631</v>
+        <v>0.04292112715484997</v>
       </c>
       <c r="M16">
-        <v>1.736868003509571</v>
+        <v>4.022344961482887</v>
       </c>
       <c r="N16">
-        <v>2.403734680770071</v>
+        <v>5.798311506435653</v>
       </c>
       <c r="O16">
-        <v>4.50414838180717</v>
+        <v>4.488531849418678</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3513869674881676</v>
+        <v>0.1975005353707218</v>
       </c>
       <c r="D17">
-        <v>0.1411433210920023</v>
+        <v>0.04455668637074339</v>
       </c>
       <c r="E17">
-        <v>0.137034945493296</v>
+        <v>0.03162636004920483</v>
       </c>
       <c r="F17">
-        <v>1.723089346337218</v>
+        <v>1.482516484566574</v>
       </c>
       <c r="G17">
-        <v>1.144583763528402</v>
+        <v>1.339687980803205</v>
       </c>
       <c r="H17">
-        <v>1.056608846548642</v>
+        <v>0.7327357780944794</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1658766462089591</v>
+        <v>0.03133174337448441</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1286626060317673</v>
+        <v>0.04326627097939983</v>
       </c>
       <c r="M17">
-        <v>1.685571756057243</v>
+        <v>3.860943023370666</v>
       </c>
       <c r="N17">
-        <v>2.334378555150352</v>
+        <v>5.586169236567855</v>
       </c>
       <c r="O17">
-        <v>4.478489123378438</v>
+        <v>4.325804520124677</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3513896236381839</v>
+        <v>0.1946075756318493</v>
       </c>
       <c r="D18">
-        <v>0.1413486608168384</v>
+        <v>0.04456681224626635</v>
       </c>
       <c r="E18">
-        <v>0.1374030153451375</v>
+        <v>0.03199762109641924</v>
       </c>
       <c r="F18">
-        <v>1.718925750128733</v>
+        <v>1.452460053742314</v>
       </c>
       <c r="G18">
-        <v>1.139156821092882</v>
+        <v>1.308835433520954</v>
       </c>
       <c r="H18">
-        <v>1.055221513001953</v>
+        <v>0.7197908550711816</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1664351682172587</v>
+        <v>0.03199378772741746</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1288417994893294</v>
+        <v>0.04346887626417484</v>
       </c>
       <c r="M18">
-        <v>1.656046576288148</v>
+        <v>3.768108716379999</v>
       </c>
       <c r="N18">
-        <v>2.294497683618829</v>
+        <v>5.464277639175236</v>
       </c>
       <c r="O18">
-        <v>4.463988120995225</v>
+        <v>4.233188140758614</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3513936982925827</v>
+        <v>0.193636678211675</v>
       </c>
       <c r="D19">
-        <v>0.1414189906730208</v>
+        <v>0.04457162907031531</v>
       </c>
       <c r="E19">
-        <v>0.1375286652677783</v>
+        <v>0.03212533539447371</v>
       </c>
       <c r="F19">
-        <v>1.717532598846219</v>
+        <v>1.442340220327608</v>
       </c>
       <c r="G19">
-        <v>1.137331527665623</v>
+        <v>1.298439857282375</v>
       </c>
       <c r="H19">
-        <v>1.054760694648593</v>
+        <v>0.7154347289793463</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1666257126785773</v>
+        <v>0.03222105826719091</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1289030260377757</v>
+        <v>0.04353817432635054</v>
       </c>
       <c r="M19">
-        <v>1.646046353384165</v>
+        <v>3.736676081127314</v>
       </c>
       <c r="N19">
-        <v>2.280996718963991</v>
+        <v>5.423028190458922</v>
       </c>
       <c r="O19">
-        <v>4.459122533500249</v>
+        <v>4.201992880954037</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3513879844749681</v>
+        <v>0.1980401001016077</v>
       </c>
       <c r="D20">
-        <v>0.1411056998143749</v>
+        <v>0.04455547688905526</v>
       </c>
       <c r="E20">
-        <v>0.1369673123296709</v>
+        <v>0.03155861191342524</v>
       </c>
       <c r="F20">
-        <v>1.72386780763614</v>
+        <v>1.488106630585818</v>
       </c>
       <c r="G20">
-        <v>1.14559395492131</v>
+        <v>1.345422514974643</v>
       </c>
       <c r="H20">
-        <v>1.056869842935669</v>
+        <v>0.7351445095684994</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1657739598671579</v>
+        <v>0.03121070746296262</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1286297047200939</v>
+        <v>0.04322910613398001</v>
       </c>
       <c r="M20">
-        <v>1.691034517533609</v>
+        <v>3.878124432690527</v>
       </c>
       <c r="N20">
-        <v>2.34176053310108</v>
+        <v>5.608738789152824</v>
       </c>
       <c r="O20">
-        <v>4.4811939359127</v>
+        <v>4.3430244235999</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3515898645686377</v>
+        <v>0.2134671292306507</v>
       </c>
       <c r="D21">
-        <v>0.1401090810764885</v>
+        <v>0.0446009527397031</v>
       </c>
       <c r="E21">
-        <v>0.135152802282037</v>
+        <v>0.02979963476263858</v>
       </c>
       <c r="F21">
-        <v>1.746307226287513</v>
+        <v>1.646082473599733</v>
       </c>
       <c r="G21">
-        <v>1.174203203307201</v>
+        <v>1.507045344617438</v>
       </c>
       <c r="H21">
-        <v>1.064576275433467</v>
+        <v>0.8033467947996655</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1630124096416861</v>
+        <v>0.02804173221161221</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1277499001938693</v>
+        <v>0.04223971792030667</v>
       </c>
       <c r="M21">
-        <v>1.841931727150097</v>
+        <v>4.353408965971752</v>
       </c>
       <c r="N21">
-        <v>2.546039395052844</v>
+        <v>6.234285315425609</v>
       </c>
       <c r="O21">
-        <v>4.558429708912627</v>
+        <v>4.828985916843294</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3518867975492554</v>
+        <v>0.224061779018939</v>
       </c>
       <c r="D22">
-        <v>0.1394994339779529</v>
+        <v>0.04470889488100838</v>
       </c>
       <c r="E22">
-        <v>0.1340203204498431</v>
+        <v>0.02876458295499962</v>
       </c>
       <c r="F22">
-        <v>1.761834225716427</v>
+        <v>1.752784933278534</v>
       </c>
       <c r="G22">
-        <v>1.193535380062798</v>
+        <v>1.615793201100104</v>
       </c>
       <c r="H22">
-        <v>1.070075236873947</v>
+        <v>0.8495401754740897</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1612824549919587</v>
+        <v>0.02614996306407846</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1272035211619098</v>
+        <v>0.04163010466321637</v>
       </c>
       <c r="M22">
-        <v>1.94034500484716</v>
+        <v>4.664158521345414</v>
       </c>
       <c r="N22">
-        <v>2.679614937623569</v>
+        <v>6.644454917925486</v>
       </c>
       <c r="O22">
-        <v>4.611207126307647</v>
+        <v>5.156576776254099</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3517132078045933</v>
+        <v>0.2183576016791164</v>
       </c>
       <c r="D23">
-        <v>0.1398210006158251</v>
+        <v>0.04464386868395565</v>
       </c>
       <c r="E23">
-        <v>0.1346198561190173</v>
+        <v>0.02930610518476584</v>
       </c>
       <c r="F23">
-        <v>1.753468248603738</v>
+        <v>1.69549806395618</v>
       </c>
       <c r="G23">
-        <v>1.183159266364612</v>
+        <v>1.557446302274798</v>
       </c>
       <c r="H23">
-        <v>1.067098013252263</v>
+        <v>0.8247281017586943</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1621989013602825</v>
+        <v>0.0271424824932307</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1274925201791319</v>
+        <v>0.04195205049999018</v>
       </c>
       <c r="M23">
-        <v>1.8878398875286</v>
+        <v>4.498287720105196</v>
       </c>
       <c r="N23">
-        <v>2.608318417713463</v>
+        <v>6.425406552857908</v>
       </c>
       <c r="O23">
-        <v>4.582828133570729</v>
+        <v>4.980757235989017</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3513874671098165</v>
+        <v>0.1977960073628822</v>
       </c>
       <c r="D24">
-        <v>0.1411226935084144</v>
+        <v>0.04455599817582723</v>
       </c>
       <c r="E24">
-        <v>0.1369978701253158</v>
+        <v>0.03158920330096215</v>
       </c>
       <c r="F24">
-        <v>1.723515570608555</v>
+        <v>1.485578311559536</v>
       </c>
       <c r="G24">
-        <v>1.145137034133683</v>
+        <v>1.342829032358026</v>
       </c>
       <c r="H24">
-        <v>1.056751686887225</v>
+        <v>0.7340550421656076</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1658203574799675</v>
+        <v>0.03126536945570724</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1286445691015068</v>
+        <v>0.04324589535528034</v>
       </c>
       <c r="M24">
-        <v>1.688564909626649</v>
+        <v>3.870356850243425</v>
       </c>
       <c r="N24">
-        <v>2.338423162681011</v>
+        <v>5.598534872952314</v>
       </c>
       <c r="O24">
-        <v>4.479970308835107</v>
+        <v>4.335236397947654</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3517430381108113</v>
+        <v>0.1775575547213037</v>
       </c>
       <c r="D25">
-        <v>0.1427060371992397</v>
+        <v>0.04477252934103149</v>
       </c>
       <c r="E25">
-        <v>0.1397917753362279</v>
+        <v>0.03450341651885314</v>
       </c>
       <c r="F25">
-        <v>1.694896043801592</v>
+        <v>1.271970186143037</v>
       </c>
       <c r="G25">
-        <v>1.106835103166674</v>
+        <v>1.122769579161485</v>
       </c>
       <c r="H25">
-        <v>1.047574717685251</v>
+        <v>0.6423008630008269</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1700470029199002</v>
+        <v>0.03641223404937222</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1300106810094785</v>
+        <v>0.0447974591760989</v>
       </c>
       <c r="M25">
-        <v>1.472825668018615</v>
+        <v>3.192971458085054</v>
       </c>
       <c r="N25">
-        <v>2.047732773542464</v>
+        <v>4.71137614171181</v>
       </c>
       <c r="O25">
-        <v>4.378862964720952</v>
+        <v>3.675802126634551</v>
       </c>
     </row>
   </sheetData>
